--- a/test/book-index-201903011.xlsx
+++ b/test/book-index-201903011.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB10B802-72FF-4822-9B25-95FA0D9024D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="12660" windowHeight="9720"/>
+    <workbookView xWindow="-26880" yWindow="510" windowWidth="19680" windowHeight="15090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>二级目录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,22 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1.1.1.1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>第一课</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>007acfcfe56045b5a128375007de56e4</t>
   </si>
   <si>
@@ -104,13 +89,26 @@
   <si>
     <t>00fd074222cd4d6593719db40b8d37b8</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1.1第一课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3.1.2第一课</t>
+  </si>
+  <si>
+    <t>1.3.1.3第一课</t>
+  </si>
+  <si>
+    <t>1.3.1.4第一课</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +125,14 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -157,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -170,6 +176,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -230,7 +237,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -263,9 +270,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -298,6 +322,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -473,11 +514,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -528,11 +569,11 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D5" s="2" t="s">
-        <v>15</v>
+      <c r="D5" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -553,7 +594,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -562,7 +603,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -582,7 +623,27 @@
         <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D14" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D16" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
